--- a/data/trans_orig/P13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P13-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>674994</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>644004</v>
+        <v>646776</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>702696</v>
+        <v>707133</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6542396762584403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6242025378493054</v>
+        <v>0.62688901994019</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6810896488587521</v>
+        <v>0.6853901918067141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>726</v>
@@ -765,19 +765,19 @@
         <v>735308</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>698825</v>
+        <v>703115</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>767529</v>
+        <v>774173</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5591215779247601</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5313799873608169</v>
+        <v>0.5346423659059918</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5836219351722364</v>
+        <v>0.5886739070537028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1409</v>
@@ -786,19 +786,19 @@
         <v>1410302</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1365554</v>
+        <v>1361817</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1455504</v>
+        <v>1453053</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6009376812334676</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.581870512705197</v>
+        <v>0.5802779743842612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6201986244665749</v>
+        <v>0.619154274290565</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>160358</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>136041</v>
+        <v>137928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>183964</v>
+        <v>184967</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1554270813990622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1318578713731372</v>
+        <v>0.1336867784424524</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.178307692999437</v>
+        <v>0.1792797375960294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>243</v>
@@ -836,19 +836,19 @@
         <v>245235</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>217385</v>
+        <v>218772</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>273154</v>
+        <v>273092</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1864744531791664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1652975050207233</v>
+        <v>0.1663521300504656</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2077037613516354</v>
+        <v>0.2076568662810762</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>403</v>
@@ -857,19 +857,19 @@
         <v>405592</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>372041</v>
+        <v>371887</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>446175</v>
+        <v>445152</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1728253145970825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1585290060147724</v>
+        <v>0.1584631570375598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1901179564743455</v>
+        <v>0.189681817391209</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>141237</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>121419</v>
+        <v>119653</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>164708</v>
+        <v>165452</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1368947541756572</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1176857978105566</v>
+        <v>0.1159744212812557</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1596433106822305</v>
+        <v>0.1603645550510954</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>234</v>
@@ -907,19 +907,19 @@
         <v>240643</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>214824</v>
+        <v>212598</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>271839</v>
+        <v>269347</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1829824474940255</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1633499425221387</v>
+        <v>0.1616577791963535</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2067039987764646</v>
+        <v>0.2048090931747003</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>376</v>
@@ -928,19 +928,19 @@
         <v>381880</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>347479</v>
+        <v>345552</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>418055</v>
+        <v>416655</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.162721237705115</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1480627495019388</v>
+        <v>0.1472416443726779</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1781357622309032</v>
+        <v>0.1775392535593019</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>25843</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16636</v>
+        <v>16972</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37594</v>
+        <v>36823</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02504846268426541</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01612461006187617</v>
+        <v>0.01644996080184987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03643838554335656</v>
+        <v>0.03569062518820781</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -978,19 +978,19 @@
         <v>58369</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44001</v>
+        <v>44021</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73935</v>
+        <v>73214</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04438290580020464</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03345832754396898</v>
+        <v>0.0334734327891772</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0562192459994655</v>
+        <v>0.0556711707665571</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -999,19 +999,19 @@
         <v>84212</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68679</v>
+        <v>66825</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103563</v>
+        <v>102557</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0358830400026757</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02926462113377239</v>
+        <v>0.02847431109163031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04412890003896004</v>
+        <v>0.04369999420302289</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>29291</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19957</v>
+        <v>19998</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>41999</v>
+        <v>43102</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0283900254825749</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01934358095796444</v>
+        <v>0.01938267237393002</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04070754480636287</v>
+        <v>0.0417763566760254</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>33</v>
@@ -1049,19 +1049,19 @@
         <v>35559</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24798</v>
+        <v>24515</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49608</v>
+        <v>49460</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02703861560184337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.018856296683615</v>
+        <v>0.01864124846075733</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03772113296337356</v>
+        <v>0.03760910634459175</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>61</v>
@@ -1070,19 +1070,19 @@
         <v>64849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>50610</v>
+        <v>50943</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>83624</v>
+        <v>84514</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02763272646165929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02156502253555293</v>
+        <v>0.02170701369443042</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03563288229724206</v>
+        <v>0.03601210963230043</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>1441516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1411055</v>
+        <v>1408812</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1468756</v>
+        <v>1470602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8512486827186468</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8332607294086977</v>
+        <v>0.8319364198130864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8673347231074569</v>
+        <v>0.8684248861476191</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1210</v>
@@ -1195,19 +1195,19 @@
         <v>1231530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1198842</v>
+        <v>1198930</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1265187</v>
+        <v>1263145</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7756824859971165</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7550937459053707</v>
+        <v>0.75514920336165</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7968811806578501</v>
+        <v>0.7955950841829836</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2608</v>
@@ -1216,19 +1216,19 @@
         <v>2673046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2625911</v>
+        <v>2627852</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2719426</v>
+        <v>2719083</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8146832197958698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8003176274696305</v>
+        <v>0.800909274511601</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8288188193885685</v>
+        <v>0.8287144166606857</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>138481</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>116340</v>
+        <v>117741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>162068</v>
+        <v>164935</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08177616808163676</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06870130612933281</v>
+        <v>0.06952894561556598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09570479234509149</v>
+        <v>0.09739783080495945</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -1266,19 +1266,19 @@
         <v>167344</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143373</v>
+        <v>143106</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>193520</v>
+        <v>194388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1054023447396861</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0903038487910711</v>
+        <v>0.090135656157579</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1218888911352881</v>
+        <v>0.1224359520987085</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>301</v>
@@ -1287,19 +1287,19 @@
         <v>305825</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>272394</v>
+        <v>273840</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>339205</v>
+        <v>344506</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09320855616093178</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08301931621341983</v>
+        <v>0.08346024815715557</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1033819853084093</v>
+        <v>0.1049974431631145</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>74856</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>59124</v>
+        <v>58883</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92443</v>
+        <v>93215</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04420426073546585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0349138550494696</v>
+        <v>0.03477192655423172</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0545897531596992</v>
+        <v>0.05504585398971404</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>133</v>
@@ -1337,19 +1337,19 @@
         <v>137213</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>114919</v>
+        <v>116137</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>160950</v>
+        <v>162307</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08642401545641754</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07238191616876749</v>
+        <v>0.0731494045633052</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1013750746546756</v>
+        <v>0.1022296201614658</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>207</v>
@@ -1358,19 +1358,19 @@
         <v>212069</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>183945</v>
+        <v>184887</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>240361</v>
+        <v>242601</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06463383034245186</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05606224305330528</v>
+        <v>0.05634922581242437</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0732566218119728</v>
+        <v>0.07393925265537121</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>24052</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16380</v>
+        <v>14927</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34604</v>
+        <v>34804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01420354950969669</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009672795138242441</v>
+        <v>0.008814998920378982</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02043465979169565</v>
+        <v>0.02055236008768221</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -1408,19 +1408,19 @@
         <v>26273</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17423</v>
+        <v>17177</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38881</v>
+        <v>38728</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01654788506278502</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01097418073777047</v>
+        <v>0.0108188266007775</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02448925839670674</v>
+        <v>0.02439309604483368</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1429,19 +1429,19 @@
         <v>50325</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36903</v>
+        <v>37716</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>67762</v>
+        <v>65331</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01533794184997674</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01124725158093662</v>
+        <v>0.01149492884225903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0206521624472544</v>
+        <v>0.01991146098973648</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>14508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7133</v>
+        <v>8302</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24960</v>
+        <v>25746</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008567338954553824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004212442554255384</v>
+        <v>0.004902413593372541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01473936468195881</v>
+        <v>0.01520351413228095</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>25</v>
@@ -1479,19 +1479,19 @@
         <v>25313</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16248</v>
+        <v>16936</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36233</v>
+        <v>36711</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01594326874399476</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01023412749315188</v>
+        <v>0.01066721241512749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02282171589573418</v>
+        <v>0.0231225786706632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1500,19 +1500,19 @@
         <v>39821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>29133</v>
+        <v>27547</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>55926</v>
+        <v>54620</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01213645185076983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00887898508625614</v>
+        <v>0.008395569470069556</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0170448824338715</v>
+        <v>0.01664701341245489</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>472826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>454320</v>
+        <v>455842</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>488494</v>
+        <v>490145</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.857488015345207</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8239271560953294</v>
+        <v>0.8266881468476935</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8859021524988036</v>
+        <v>0.8888971153444697</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>356</v>
@@ -1625,19 +1625,19 @@
         <v>375290</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>357133</v>
+        <v>356829</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>393320</v>
+        <v>392427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7877423230344278</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7496300943063197</v>
+        <v>0.7489932134630045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8255879444454678</v>
+        <v>0.8237138197346453</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>808</v>
@@ -1646,19 +1646,19 @@
         <v>848116</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>824243</v>
+        <v>823883</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>872808</v>
+        <v>874182</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8251597153998502</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8019333601492564</v>
+        <v>0.8015824830416187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.849183290291868</v>
+        <v>0.8505207538548757</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>41906</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30234</v>
+        <v>29630</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>55943</v>
+        <v>55445</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07599771633664319</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05483099496785663</v>
+        <v>0.05373519174424139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1014555495926497</v>
+        <v>0.1005517989161547</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -1696,19 +1696,19 @@
         <v>44479</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>32931</v>
+        <v>33339</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>59089</v>
+        <v>59451</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09336337972045844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.069123800066466</v>
+        <v>0.0699791382441825</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1240300661459795</v>
+        <v>0.1247892039158361</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>80</v>
@@ -1717,19 +1717,19 @@
         <v>86385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68962</v>
+        <v>68184</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>107955</v>
+        <v>104505</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08404699301627712</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06709502250033064</v>
+        <v>0.06633889545102467</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1050327794362371</v>
+        <v>0.1016760478199651</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>25960</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17251</v>
+        <v>17600</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37763</v>
+        <v>37093</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04707916785718152</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03128587987794737</v>
+        <v>0.03191882632565651</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06848495896642713</v>
+        <v>0.06726936482473576</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -1767,19 +1767,19 @@
         <v>38263</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27350</v>
+        <v>27340</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52777</v>
+        <v>51140</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0803142447657872</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05740809252242184</v>
+        <v>0.05738778744840165</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1107801827435175</v>
+        <v>0.107343575729921</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>63</v>
@@ -1788,19 +1788,19 @@
         <v>64222</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>50385</v>
+        <v>50141</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>81329</v>
+        <v>82808</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06248418427340471</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04902144718755438</v>
+        <v>0.04878361677175271</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07912789249412719</v>
+        <v>0.0805665905169541</v>
       </c>
     </row>
     <row r="19">
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8823</v>
+        <v>9503</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.00475850589005684</v>
@@ -1829,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01600034151011406</v>
+        <v>0.01723447454925437</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1838,19 +1838,19 @@
         <v>12372</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7048</v>
+        <v>7105</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20817</v>
+        <v>21296</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02596878603806833</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01479493250151911</v>
+        <v>0.01491454715839615</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04369515165674401</v>
+        <v>0.0447012528441796</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1859,19 +1859,19 @@
         <v>14996</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8792</v>
+        <v>8381</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24401</v>
+        <v>25091</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01458982702017899</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.008553743422797402</v>
+        <v>0.008153699258733885</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02374025872931398</v>
+        <v>0.02441213245401293</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>8093</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3523</v>
+        <v>3795</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14758</v>
+        <v>15442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01467659457091141</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006389855314592499</v>
+        <v>0.006882167020980548</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02676354468818693</v>
+        <v>0.02800456923962014</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1909,19 +1909,19 @@
         <v>6008</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2192</v>
+        <v>1958</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12425</v>
+        <v>12879</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01261126644125824</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004600099822882358</v>
+        <v>0.004109980493108517</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02608094919874457</v>
+        <v>0.02703311732508965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>14</v>
@@ -1930,19 +1930,19 @@
         <v>14101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8345</v>
+        <v>8002</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23132</v>
+        <v>23698</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01371928029028893</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008119211767369768</v>
+        <v>0.007785801531041543</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0225057895455358</v>
+        <v>0.02305680565185695</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>2589335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2537684</v>
+        <v>2539693</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2634179</v>
+        <v>2636353</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7902642081877826</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7745003892531258</v>
+        <v>0.7751134806398913</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8039507988205913</v>
+        <v>0.8046141739539114</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2292</v>
@@ -2055,19 +2055,19 @@
         <v>2342127</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2287787</v>
+        <v>2286197</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2395748</v>
+        <v>2393675</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6931017688338678</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6770208062253898</v>
+        <v>0.6765502751346204</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7089696027083857</v>
+        <v>0.7083561962595885</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4825</v>
@@ -2076,19 +2076,19 @@
         <v>4931463</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4860428</v>
+        <v>4859596</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5010639</v>
+        <v>5009020</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7409337021157486</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7302610191179767</v>
+        <v>0.730135971487533</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7528295689587832</v>
+        <v>0.7525863760917491</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>340744</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>308877</v>
+        <v>306834</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>376499</v>
+        <v>379517</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1039950242614737</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0942691112572802</v>
+        <v>0.09364556172581028</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1149073231597729</v>
+        <v>0.1158283997416414</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>445</v>
@@ -2126,19 +2126,19 @@
         <v>457059</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>420469</v>
+        <v>413589</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>499243</v>
+        <v>496757</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1352566092356671</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1244285778447247</v>
+        <v>0.1223927208946869</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1477400845934316</v>
+        <v>0.1470045249350617</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>784</v>
@@ -2147,19 +2147,19 @@
         <v>797803</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>748591</v>
+        <v>750259</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>852482</v>
+        <v>857769</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1198668963310248</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1124730055956131</v>
+        <v>0.1127236452350785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.128082274089462</v>
+        <v>0.1288764940750098</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>242053</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>213285</v>
+        <v>212311</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>272118</v>
+        <v>273333</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0738745978799787</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0650945361867676</v>
+        <v>0.06479726771756945</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.08305031382471141</v>
+        <v>0.08342117179825267</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>404</v>
@@ -2197,19 +2197,19 @@
         <v>416118</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>380746</v>
+        <v>380051</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>454742</v>
+        <v>456527</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1231411514101412</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1126735204141592</v>
+        <v>0.1124677802670217</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1345709548688477</v>
+        <v>0.1350991711873093</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>646</v>
@@ -2218,19 +2218,19 @@
         <v>658172</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>611319</v>
+        <v>608209</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>708942</v>
+        <v>709877</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09888780292329101</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09184831962923483</v>
+        <v>0.09138109640636957</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1065158020274111</v>
+        <v>0.1066563704667999</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>52519</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38782</v>
+        <v>39014</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68688</v>
+        <v>69292</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01602890997412547</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0118361728905271</v>
+        <v>0.01190709417394318</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02096368234593981</v>
+        <v>0.02114775480757978</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>92</v>
@@ -2268,19 +2268,19 @@
         <v>97013</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>79893</v>
+        <v>80618</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>116302</v>
+        <v>122419</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02870888370594018</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02364267267573019</v>
+        <v>0.02385711729840063</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03441714846631437</v>
+        <v>0.03622710293809021</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>143</v>
@@ -2289,19 +2289,19 @@
         <v>149532</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125193</v>
+        <v>127381</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>175116</v>
+        <v>176896</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02246668083835927</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01880974169413447</v>
+        <v>0.01913854096895457</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02631057234439534</v>
+        <v>0.02657801677092463</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>51891</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38519</v>
+        <v>39036</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68755</v>
+        <v>69004</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01583725969663946</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01175596362873004</v>
+        <v>0.01191382956211464</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02098403086702357</v>
+        <v>0.02106006686775986</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -2339,19 +2339,19 @@
         <v>66880</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52283</v>
+        <v>52310</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>85217</v>
+        <v>85024</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01979158681438376</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01547212153930837</v>
+        <v>0.01548008069064105</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02521802502445718</v>
+        <v>0.02516096734258038</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -2360,19 +2360,19 @@
         <v>118771</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>97500</v>
+        <v>96240</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>142355</v>
+        <v>143509</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01784491779157627</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01464897577888105</v>
+        <v>0.01445966275405806</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02138828540219383</v>
+        <v>0.02156166054861972</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>572760</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>541659</v>
+        <v>541119</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>602894</v>
+        <v>606467</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5882435272295323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5563020893981327</v>
+        <v>0.5557474224919935</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6191920899536997</v>
+        <v>0.6228621244697369</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>567</v>
@@ -2724,19 +2724,19 @@
         <v>610376</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>575795</v>
+        <v>573700</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>648486</v>
+        <v>647940</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4566295600020382</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4307589482183934</v>
+        <v>0.4291915339261132</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4851395411899718</v>
+        <v>0.4847314753928993</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1105</v>
@@ -2745,19 +2745,19 @@
         <v>1183136</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1132263</v>
+        <v>1136204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1235640</v>
+        <v>1234801</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5120965284765256</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4900775648664661</v>
+        <v>0.491783362238531</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5348220692490548</v>
+        <v>0.5344586842735629</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>185843</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>162520</v>
+        <v>159899</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>213891</v>
+        <v>212736</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1908665750151188</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1669136265469251</v>
+        <v>0.1642217599578747</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2196732120346225</v>
+        <v>0.2184867951129327</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>247</v>
@@ -2795,19 +2795,19 @@
         <v>264109</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237598</v>
+        <v>237588</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296672</v>
+        <v>294764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1975830914149814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1777501794401241</v>
+        <v>0.1777422103283864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2219440287369739</v>
+        <v>0.2205165947359335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>419</v>
@@ -2816,19 +2816,19 @@
         <v>449952</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>414511</v>
+        <v>410265</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>488231</v>
+        <v>489235</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1947525042724662</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1794126638727051</v>
+        <v>0.1775751565398303</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2113210030154005</v>
+        <v>0.2117557055526437</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>145070</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>122894</v>
+        <v>123471</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>168049</v>
+        <v>168084</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.148992235862955</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1262167078698517</v>
+        <v>0.1268084829033947</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1725921975433358</v>
+        <v>0.1726279305984743</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>245</v>
@@ -2866,19 +2866,19 @@
         <v>260754</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>232931</v>
+        <v>232596</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>288785</v>
+        <v>288784</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.195073045444283</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1742583406396884</v>
+        <v>0.1740073964809608</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2160430444120874</v>
+        <v>0.216042550013496</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>379</v>
@@ -2887,19 +2887,19 @@
         <v>405824</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>369502</v>
+        <v>371410</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>443694</v>
+        <v>446361</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.175652896761215</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1599315625100321</v>
+        <v>0.1607575659990021</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1920438698936712</v>
+        <v>0.1931985662984529</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>39496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27170</v>
+        <v>27948</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52956</v>
+        <v>55865</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04056394122934956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02790475833501678</v>
+        <v>0.02870347913706691</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05438799714339705</v>
+        <v>0.05737543184338484</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -2937,19 +2937,19 @@
         <v>119225</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>99347</v>
+        <v>98646</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>142869</v>
+        <v>139722</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08919377163026457</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07432285724819201</v>
+        <v>0.07379791799535357</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1068817380983153</v>
+        <v>0.1045278061107419</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>148</v>
@@ -2958,19 +2958,19 @@
         <v>158721</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>134543</v>
+        <v>133768</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>185376</v>
+        <v>185409</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06869937178359124</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05823441925899638</v>
+        <v>0.05789861499444967</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08023612922345698</v>
+        <v>0.08025067444137682</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>30509</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20155</v>
+        <v>20937</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>43961</v>
+        <v>44218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03133372066304442</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02070010242401454</v>
+        <v>0.02150265822261453</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04514909391336162</v>
+        <v>0.04541350696201237</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>75</v>
@@ -3008,19 +3008,19 @@
         <v>82234</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>65353</v>
+        <v>64707</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>100378</v>
+        <v>100990</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06152053150843281</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04889127536854101</v>
+        <v>0.04840819848028201</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07509407673170526</v>
+        <v>0.07555155063171108</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>102</v>
@@ -3029,19 +3029,19 @@
         <v>112743</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>93910</v>
+        <v>91968</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>137649</v>
+        <v>139822</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04879869870620195</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04064686382886593</v>
+        <v>0.039806449153694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05957850331573358</v>
+        <v>0.06051895830526038</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>1583700</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1548414</v>
+        <v>1550872</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1619852</v>
+        <v>1621632</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8071946304215528</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7892100061238422</v>
+        <v>0.7904629123792679</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8256210054640816</v>
+        <v>0.82652812893673</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1177</v>
@@ -3154,19 +3154,19 @@
         <v>1262211</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1223152</v>
+        <v>1223459</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1301019</v>
+        <v>1299960</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7188610075530707</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6966161743046534</v>
+        <v>0.6967908554900669</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7409634588821103</v>
+        <v>0.7403603237687805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2672</v>
@@ -3175,19 +3175,19 @@
         <v>2845910</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2789753</v>
+        <v>2794187</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2895718</v>
+        <v>2896560</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7654766111977598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7503717664079721</v>
+        <v>0.7515643237871316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.778873612629545</v>
+        <v>0.7791001274336711</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>178900</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>154235</v>
+        <v>154026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>205819</v>
+        <v>207207</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09118363743823327</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07861210289723701</v>
+        <v>0.0785055736980533</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1049035456702421</v>
+        <v>0.1056113273550521</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>192</v>
@@ -3225,19 +3225,19 @@
         <v>209486</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>183941</v>
+        <v>180999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>241500</v>
+        <v>238462</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1193078121451709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1047590862523991</v>
+        <v>0.1030834833386428</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1375405961229829</v>
+        <v>0.1358098891615843</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>365</v>
@@ -3246,19 +3246,19 @@
         <v>388387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>345978</v>
+        <v>350121</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>424529</v>
+        <v>426885</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1044660640270783</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0930592975566821</v>
+        <v>0.09417348149433949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1141874773403992</v>
+        <v>0.1148210724065408</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>123665</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102330</v>
+        <v>103917</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>147474</v>
+        <v>149769</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06303083018407787</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05215641252084471</v>
+        <v>0.05296525879844811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07516587541372635</v>
+        <v>0.07633586400565555</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>162</v>
@@ -3296,19 +3296,19 @@
         <v>173316</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>148569</v>
+        <v>149581</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>199932</v>
+        <v>199389</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09870758608462303</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08461363502513737</v>
+        <v>0.08519019025460053</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1138661889076044</v>
+        <v>0.1135569218629746</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>277</v>
@@ -3317,19 +3317,19 @@
         <v>296981</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>260653</v>
+        <v>264144</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>330936</v>
+        <v>333662</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0798801740711446</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07010885577347753</v>
+        <v>0.07104786302494752</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0890132028502395</v>
+        <v>0.08974649772204213</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>56883</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>42732</v>
+        <v>43670</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73787</v>
+        <v>74249</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02899271962925844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02178026227448356</v>
+        <v>0.0222581926269908</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03760839407052395</v>
+        <v>0.03784399307993332</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -3367,19 +3367,19 @@
         <v>74842</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59852</v>
+        <v>59766</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>96556</v>
+        <v>95275</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04262432385411927</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03408724115008857</v>
+        <v>0.03403823290630453</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05499120293196559</v>
+        <v>0.0542612638690258</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>123</v>
@@ -3388,19 +3388,19 @@
         <v>131725</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109984</v>
+        <v>110525</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>154939</v>
+        <v>156160</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03543062524930284</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02958285026435469</v>
+        <v>0.02972831315634284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04167459841953502</v>
+        <v>0.0420029536637393</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>18831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11776</v>
+        <v>11715</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28707</v>
+        <v>28934</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009598182326877593</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006002117082627393</v>
+        <v>0.00597088954817025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01463175199677682</v>
+        <v>0.0147470997988099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -3438,19 +3438,19 @@
         <v>35994</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24347</v>
+        <v>25182</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50065</v>
+        <v>51328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02049927036301611</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01386613214772263</v>
+        <v>0.01434152510825065</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02851313878974417</v>
+        <v>0.02923267811652495</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -3459,19 +3459,19 @@
         <v>54825</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>41281</v>
+        <v>40978</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>72111</v>
+        <v>72723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0147465254547145</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.011103396740719</v>
+        <v>0.01102203071176491</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01939609787935417</v>
+        <v>0.01956048959127731</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>411224</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>390885</v>
+        <v>392005</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>426837</v>
+        <v>426760</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8546139708776783</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8123451802531435</v>
+        <v>0.8146726312756237</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8870612504739442</v>
+        <v>0.8869001920857331</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>332</v>
@@ -3584,19 +3584,19 @@
         <v>369559</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>348220</v>
+        <v>351164</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>385803</v>
+        <v>387174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8057870697454905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7592605595747044</v>
+        <v>0.7656782795312794</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8412053287266957</v>
+        <v>0.8441946342014056</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>709</v>
@@ -3605,19 +3605,19 @@
         <v>780784</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>753984</v>
+        <v>755086</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>802377</v>
+        <v>803674</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8307863093290779</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8022698739884898</v>
+        <v>0.8034423577473068</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8537620714783304</v>
+        <v>0.8551424522492672</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>35397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24579</v>
+        <v>25131</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>48413</v>
+        <v>49610</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07356292220861219</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05108091427555236</v>
+        <v>0.05222792128292454</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.100613707099517</v>
+        <v>0.1030998918421391</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -3655,19 +3655,19 @@
         <v>46439</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34206</v>
+        <v>34419</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>62517</v>
+        <v>61786</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1012566228774438</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07458231935411139</v>
+        <v>0.07504680604727436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1363128335788023</v>
+        <v>0.1347177657209364</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>76</v>
@@ -3676,19 +3676,19 @@
         <v>81837</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64588</v>
+        <v>66266</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103913</v>
+        <v>102587</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08707752402163121</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0687242920785711</v>
+        <v>0.07051018468552345</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.110567257557303</v>
+        <v>0.1091564833786399</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>21339</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12505</v>
+        <v>12498</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35960</v>
+        <v>34754</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04434726765449737</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02598804803826068</v>
+        <v>0.02597287390196084</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.07473314979204493</v>
+        <v>0.07222657706876849</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -3726,19 +3726,19 @@
         <v>26477</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16624</v>
+        <v>16841</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>38268</v>
+        <v>37605</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05773144186084178</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03624738799745519</v>
+        <v>0.03672054068573646</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08343918955967171</v>
+        <v>0.08199423464188466</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -3747,19 +3747,19 @@
         <v>47817</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34613</v>
+        <v>34552</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>65111</v>
+        <v>64062</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05087878134267707</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03682973024505809</v>
+        <v>0.03676446539655958</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06928092915120293</v>
+        <v>0.06816447872011323</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>12287</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6709</v>
+        <v>6872</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21702</v>
+        <v>22408</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02553444948382957</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01394226735633735</v>
+        <v>0.01428126085964859</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04510105904610685</v>
+        <v>0.04656945889277062</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>10</v>
@@ -3797,19 +3797,19 @@
         <v>11287</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5628</v>
+        <v>5531</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>20060</v>
+        <v>19779</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02461073668050837</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01227070881800728</v>
+        <v>0.01205973144352736</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04373816870685308</v>
+        <v>0.04312667884266583</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -3818,19 +3818,19 @@
         <v>23574</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>15139</v>
+        <v>15214</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35697</v>
+        <v>35233</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0250836751046393</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01610817687172609</v>
+        <v>0.01618851805659526</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03798348932442142</v>
+        <v>0.0374895644847997</v>
       </c>
     </row>
     <row r="20">
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4778</v>
+        <v>5081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.001941389775382573</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.009930566683240957</v>
+        <v>0.01055984444420197</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -3868,19 +3868,19 @@
         <v>4868</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1145</v>
+        <v>1169</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12305</v>
+        <v>13070</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01061412883571555</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002497309832706383</v>
+        <v>0.002549030576056231</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02682981953098142</v>
+        <v>0.02849835550940758</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -3889,19 +3889,19 @@
         <v>5802</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13128</v>
+        <v>13899</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006173710201974448</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002208036238877431</v>
+        <v>0.00220529038823863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01396867142682236</v>
+        <v>0.01478915166554503</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>2567684</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2517573</v>
+        <v>2513761</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2619840</v>
+        <v>2617988</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7514792519946444</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.736813532891287</v>
+        <v>0.7356977925077107</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7667438027149025</v>
+        <v>0.7662017633601089</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2076</v>
@@ -4014,19 +4014,19 @@
         <v>2242146</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2181433</v>
+        <v>2183782</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2295559</v>
+        <v>2304069</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6313808924132249</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6142842679498222</v>
+        <v>0.6149458875336347</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6464216984533936</v>
+        <v>0.6488182027669804</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4486</v>
@@ -4035,19 +4035,19 @@
         <v>4809830</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4730427</v>
+        <v>4729949</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4895046</v>
+        <v>4886753</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6902723625364188</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6788771218921555</v>
+        <v>0.6788084322968493</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.702502071353886</v>
+        <v>0.7013119068488516</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>400140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>364002</v>
+        <v>365473</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>439756</v>
+        <v>444293</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1171082660355758</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1065317793243272</v>
+        <v>0.1069622763276218</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1287026914253948</v>
+        <v>0.1300303844765348</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>482</v>
@@ -4085,19 +4085,19 @@
         <v>520035</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>475545</v>
+        <v>476257</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>564008</v>
+        <v>566254</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1464401139441697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1339119824865385</v>
+        <v>0.1341122712290351</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1588228528912803</v>
+        <v>0.1594552220950614</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>860</v>
@@ -4106,19 +4106,19 @@
         <v>920175</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>859026</v>
+        <v>864332</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>983411</v>
+        <v>978837</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1320569395961807</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1232812433501429</v>
+        <v>0.1240426938504049</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1411321487558712</v>
+        <v>0.1404756873737057</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>290075</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>257688</v>
+        <v>255789</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>325852</v>
+        <v>325038</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08489563316709721</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07541698711488792</v>
+        <v>0.07486118779497362</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09536663311167506</v>
+        <v>0.09512828042386713</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>430</v>
@@ -4156,19 +4156,19 @@
         <v>460547</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>421036</v>
+        <v>417778</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>501339</v>
+        <v>498707</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1296884769475143</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1185622918382875</v>
+        <v>0.1176450038942286</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1411754951802222</v>
+        <v>0.140434355671199</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>695</v>
@@ -4177,19 +4177,19 @@
         <v>750622</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>692944</v>
+        <v>696490</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>803805</v>
+        <v>803575</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1077238437050513</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09944640694939962</v>
+        <v>0.09995522330574108</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1153563334289852</v>
+        <v>0.1153233804912168</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>108666</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87544</v>
+        <v>90575</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>132005</v>
+        <v>133017</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03180309023409407</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02562144537736763</v>
+        <v>0.02650829292249672</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03863380590726281</v>
+        <v>0.03892986267773588</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>193</v>
@@ -4227,19 +4227,19 @@
         <v>205354</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178910</v>
+        <v>179311</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>235043</v>
+        <v>236103</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05782709115251705</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05038059159171149</v>
+        <v>0.05049331821162005</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06618738980955402</v>
+        <v>0.06648577885668711</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>292</v>
@@ -4248,19 +4248,19 @@
         <v>314020</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>282239</v>
+        <v>277024</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>349001</v>
+        <v>353892</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04506595371554588</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04050495664068433</v>
+        <v>0.03975647564736367</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05008613536154168</v>
+        <v>0.05078804962362036</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>50275</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37132</v>
+        <v>37040</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>66104</v>
+        <v>65883</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01471375856858857</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01086749401842598</v>
+        <v>0.01084036020196048</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01934663759860614</v>
+        <v>0.01928180798488593</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>110</v>
@@ -4298,19 +4298,19 @@
         <v>123096</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>100111</v>
+        <v>99637</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>148870</v>
+        <v>148669</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03466342554257406</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02819093034444929</v>
+        <v>0.02805732292070156</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04192133168633725</v>
+        <v>0.04186457966067032</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>157</v>
@@ -4319,19 +4319,19 @@
         <v>173371</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>146595</v>
+        <v>147993</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>201874</v>
+        <v>201084</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02488090044680332</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02103829797444485</v>
+        <v>0.02123888670394841</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02897149734835676</v>
+        <v>0.02885813024490221</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>507755</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>478510</v>
+        <v>485158</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>532607</v>
+        <v>532798</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.67310540564233</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6343366200122983</v>
+        <v>0.6431490932467884</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7060502036859113</v>
+        <v>0.7063029836323782</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>491</v>
@@ -4683,19 +4683,19 @@
         <v>535931</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>502191</v>
+        <v>504977</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>568827</v>
+        <v>568742</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5399572885761175</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5059637453538888</v>
+        <v>0.508770198044163</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5731004462583578</v>
+        <v>0.5730145213921471</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>999</v>
@@ -4704,19 +4704,19 @@
         <v>1043686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1003301</v>
+        <v>1004699</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1085028</v>
+        <v>1090159</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5974536360229392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.574335103080805</v>
+        <v>0.5751354291612999</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6211193831387166</v>
+        <v>0.6240569611905751</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>104797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>86912</v>
+        <v>85911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>125308</v>
+        <v>122536</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1389235824052109</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1152146645808444</v>
+        <v>0.1138881597797805</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1661144852386145</v>
+        <v>0.1624393638793335</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>144</v>
@@ -4754,19 +4754,19 @@
         <v>161214</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>138599</v>
+        <v>138045</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>183947</v>
+        <v>185294</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1624254966571443</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1396398750220719</v>
+        <v>0.1390818610558537</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1853292924617836</v>
+        <v>0.1866862770791809</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>252</v>
@@ -4775,19 +4775,19 @@
         <v>266011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>236465</v>
+        <v>236540</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>295716</v>
+        <v>294493</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1522768422317677</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.135363569733805</v>
+        <v>0.1354062406839981</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1692810732563897</v>
+        <v>0.168581259827017</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>96550</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79189</v>
+        <v>80147</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>115161</v>
+        <v>115009</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1279917697544636</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1049764075621797</v>
+        <v>0.1062463977438042</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1526629498652847</v>
+        <v>0.152461143784148</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>164</v>
@@ -4825,19 +4825,19 @@
         <v>189553</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>166050</v>
+        <v>166151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>219564</v>
+        <v>216906</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1909770741666151</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1672969126021521</v>
+        <v>0.1673987697483548</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.221213218100289</v>
+        <v>0.2185351445626916</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>262</v>
@@ -4846,19 +4846,19 @@
         <v>286103</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>254569</v>
+        <v>253729</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>318468</v>
+        <v>318230</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1637786050758054</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1457268843102113</v>
+        <v>0.145246098553907</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1823055319146114</v>
+        <v>0.182169264334844</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>27423</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18394</v>
+        <v>18422</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39960</v>
+        <v>38216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03635327085305811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02438341277467577</v>
+        <v>0.02442139879982469</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0529729505543999</v>
+        <v>0.05066097478511796</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -4896,19 +4896,19 @@
         <v>72345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55408</v>
+        <v>56712</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91110</v>
+        <v>90987</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07288889332288087</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05582461133646414</v>
+        <v>0.05713795980693651</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09179402459588466</v>
+        <v>0.09167099013854739</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>91</v>
@@ -4917,19 +4917,19 @@
         <v>99768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81873</v>
+        <v>80811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>120418</v>
+        <v>120990</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05711199095282177</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0468679334964295</v>
+        <v>0.04625973053675266</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0689324827464087</v>
+        <v>0.06926014433522433</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>17822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11048</v>
+        <v>11192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26411</v>
+        <v>27463</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02362597134493742</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01464631404136172</v>
+        <v>0.01483726920188456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0350116943396314</v>
+        <v>0.0364060437517121</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -4967,19 +4967,19 @@
         <v>33500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23355</v>
+        <v>22985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47564</v>
+        <v>49460</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.03375124727724224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0235299972153953</v>
+        <v>0.02315783523666991</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04792086491807455</v>
+        <v>0.0498310549618776</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -4988,19 +4988,19 @@
         <v>51322</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37592</v>
+        <v>37954</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66155</v>
+        <v>66847</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02937892571666593</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02151959152245327</v>
+        <v>0.02172655929778903</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03787007156067965</v>
+        <v>0.03826644250798689</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>1685184</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1651455</v>
+        <v>1648441</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1723433</v>
+        <v>1720580</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8119756217392099</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7957238517867926</v>
+        <v>0.7942716053008743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8304050834850748</v>
+        <v>0.8290303585665197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1437</v>
@@ -5113,19 +5113,19 @@
         <v>1477361</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1433365</v>
+        <v>1439803</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1514842</v>
+        <v>1520489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7434215716629536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.721282499747445</v>
+        <v>0.7245222667814125</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7622826778456433</v>
+        <v>0.7651242355509521</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3023</v>
@@ -5134,19 +5134,19 @@
         <v>3162546</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3109697</v>
+        <v>3106459</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3216920</v>
+        <v>3215589</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7784424673209858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7654341117877473</v>
+        <v>0.7646371306917713</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.791826501826267</v>
+        <v>0.7914988957737983</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>247413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>218266</v>
+        <v>216678</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>278204</v>
+        <v>277865</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1192116387640423</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1051674593173738</v>
+        <v>0.10440231169526</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1340477566312654</v>
+        <v>0.1338844410329933</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>260</v>
@@ -5184,19 +5184,19 @@
         <v>275762</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>244186</v>
+        <v>239975</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>307656</v>
+        <v>304426</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1387661205016341</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1228768961379208</v>
+        <v>0.1207575201422191</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1548155006604615</v>
+        <v>0.1531897790511762</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>494</v>
@@ -5205,19 +5205,19 @@
         <v>523176</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>480034</v>
+        <v>481018</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>569598</v>
+        <v>567861</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1287766966263512</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1181575577662348</v>
+        <v>0.1183998621097</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1402033685675563</v>
+        <v>0.1397756983297268</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>83648</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65919</v>
+        <v>65410</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>104358</v>
+        <v>102745</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04030424982045514</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03176178169098925</v>
+        <v>0.03151660981335793</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05028311798947698</v>
+        <v>0.04950570670312539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>146</v>
@@ -5255,19 +5255,19 @@
         <v>164150</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>139432</v>
+        <v>140982</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>191221</v>
+        <v>190313</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08260164511595845</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07016340684027601</v>
+        <v>0.070943299267351</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09622407136304562</v>
+        <v>0.09576743957852729</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>225</v>
@@ -5276,19 +5276,19 @@
         <v>247798</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>217853</v>
+        <v>214035</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>283072</v>
+        <v>282580</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06099398421769436</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05362323861263638</v>
+        <v>0.05268349230391976</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.06967653513889653</v>
+        <v>0.06955539129393426</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>29754</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19709</v>
+        <v>19857</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43483</v>
+        <v>41981</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01433663315611357</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009496392686748218</v>
+        <v>0.009567935557858337</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02095170585767976</v>
+        <v>0.02022767547266013</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -5326,19 +5326,19 @@
         <v>43939</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31596</v>
+        <v>31707</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58599</v>
+        <v>59709</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02211032889085605</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01589936089526677</v>
+        <v>0.01595520142780011</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02948763260461864</v>
+        <v>0.03004606169127516</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>66</v>
@@ -5347,19 +5347,19 @@
         <v>73693</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56589</v>
+        <v>57725</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>92854</v>
+        <v>92110</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01813912971442698</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01392906035542765</v>
+        <v>0.01420878819360793</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02285549920403966</v>
+        <v>0.02267237712688366</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>29412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>19581</v>
+        <v>19315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42658</v>
+        <v>41726</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01417185652017906</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.009434685706564033</v>
+        <v>0.009306753316981527</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02055381057207314</v>
+        <v>0.0201051501211381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>24</v>
@@ -5397,19 +5397,19 @@
         <v>26034</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17232</v>
+        <v>16915</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>38704</v>
+        <v>38606</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01310033382859781</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008671296301051078</v>
+        <v>0.008511636391055889</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01947623710064577</v>
+        <v>0.01942709137915883</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>50</v>
@@ -5418,19 +5418,19 @@
         <v>55446</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>40744</v>
+        <v>41596</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>73580</v>
+        <v>72427</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01364772212054174</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01002889376379505</v>
+        <v>0.0102385978468303</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01811140926115339</v>
+        <v>0.01782751716841596</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>451344</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>432125</v>
+        <v>430707</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>468772</v>
+        <v>468433</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8252984010243559</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7901546783260593</v>
+        <v>0.7875628566957685</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8571664207365634</v>
+        <v>0.8565458775714956</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>428</v>
@@ -5543,19 +5543,19 @@
         <v>444866</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>424350</v>
+        <v>424190</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>462736</v>
+        <v>461998</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8128794609212762</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7753911170072515</v>
+        <v>0.775099273055038</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8455324700732668</v>
+        <v>0.8441831851302372</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>843</v>
@@ -5564,19 +5564,19 @@
         <v>896211</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>868019</v>
+        <v>868527</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>919912</v>
+        <v>921248</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.819086738831707</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7933207196751625</v>
+        <v>0.7937847144386027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8407477939275207</v>
+        <v>0.8419690482007017</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>62619</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>48942</v>
+        <v>48550</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80228</v>
+        <v>81234</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1145016885873317</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08949304250380785</v>
+        <v>0.08877470085473083</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1467004413570303</v>
+        <v>0.1485398265029956</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -5614,19 +5614,19 @@
         <v>51852</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>39197</v>
+        <v>38823</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>65975</v>
+        <v>67792</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09474665453606118</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07162195730930854</v>
+        <v>0.07093916259159838</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1205528891596375</v>
+        <v>0.1238734375412426</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>107</v>
@@ -5635,19 +5635,19 @@
         <v>114472</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>95338</v>
+        <v>94314</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136971</v>
+        <v>135751</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1046206844829365</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08713315237566471</v>
+        <v>0.08619775323339329</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1251838291758418</v>
+        <v>0.1240690371569977</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>19754</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12105</v>
+        <v>11572</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>31720</v>
+        <v>31289</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03611997623237171</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02213479901826936</v>
+        <v>0.02116024053512322</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05800032110193791</v>
+        <v>0.05721309269593437</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>30</v>
@@ -5685,19 +5685,19 @@
         <v>31721</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21668</v>
+        <v>21296</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>44499</v>
+        <v>44794</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05796166617145109</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03959218648032885</v>
+        <v>0.03891257064184048</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08130971479868766</v>
+        <v>0.08184952476755104</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>47</v>
@@ -5706,19 +5706,19 @@
         <v>51474</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>37049</v>
+        <v>38736</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>66899</v>
+        <v>70221</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04704467660873433</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03386106548690887</v>
+        <v>0.03540251277004396</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06114238456150908</v>
+        <v>0.06417822986343921</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>11193</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5397</v>
+        <v>5756</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19941</v>
+        <v>19838</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02046636110744659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009868550881684472</v>
+        <v>0.01052425960989395</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03646324812981935</v>
+        <v>0.03627506672516693</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -5756,19 +5756,19 @@
         <v>12813</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6942</v>
+        <v>7168</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22736</v>
+        <v>22941</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02341270388907151</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01268394372431962</v>
+        <v>0.01309799859339926</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0415440336934451</v>
+        <v>0.04191838979039518</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -5777,19 +5777,19 @@
         <v>24006</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>14559</v>
+        <v>14969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36254</v>
+        <v>35809</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02194005257477761</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01330643975599799</v>
+        <v>0.01368041627788795</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03313453227548113</v>
+        <v>0.03272736061107757</v>
       </c>
     </row>
     <row r="20">
@@ -5809,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7116</v>
+        <v>6871</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003613573048494018</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01301162184942486</v>
+        <v>0.01256437615482319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -5827,19 +5827,19 @@
         <v>6020</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2167</v>
+        <v>2229</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13583</v>
+        <v>13587</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01099951448214005</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.003959304374092351</v>
+        <v>0.004072784739263552</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0248200610661914</v>
+        <v>0.0248264518955609</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -5848,19 +5848,19 @@
         <v>7996</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3347</v>
+        <v>3806</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15856</v>
+        <v>16957</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007307847501844588</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003058568982720854</v>
+        <v>0.00347858465821511</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01449130077359132</v>
+        <v>0.0154974384246293</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>2644283</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2588300</v>
+        <v>2589145</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2689502</v>
+        <v>2688565</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7831096170889158</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7665301928454569</v>
+        <v>0.7667803487808532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7965012232431856</v>
+        <v>0.7962236569255311</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2356</v>
@@ -5973,19 +5973,19 @@
         <v>2458159</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2403705</v>
+        <v>2404917</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2514753</v>
+        <v>2510622</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6969424060100493</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6815034784366453</v>
+        <v>0.6818470984584533</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7129881715638877</v>
+        <v>0.7118168726651273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4865</v>
@@ -5994,19 +5994,19 @@
         <v>5102442</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5027124</v>
+        <v>5029483</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5173544</v>
+        <v>5171084</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7390873117192066</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7281774529208199</v>
+        <v>0.7285191531010374</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7493863126927576</v>
+        <v>0.7490300300511695</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>414829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>380011</v>
+        <v>378778</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>457070</v>
+        <v>456037</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1228524815563843</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1125408851269392</v>
+        <v>0.1121759283814525</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1353621048364308</v>
+        <v>0.1350563650458028</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>454</v>
@@ -6044,19 +6044,19 @@
         <v>488829</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>446763</v>
+        <v>447490</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>529159</v>
+        <v>531780</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1385938338419147</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1266670523356237</v>
+        <v>0.1268732049359008</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.15002834748605</v>
+        <v>0.1507713606511177</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>853</v>
@@ -6065,19 +6065,19 @@
         <v>903658</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>850631</v>
+        <v>844178</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>959517</v>
+        <v>963700</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.130894642937371</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1232136539406383</v>
+        <v>0.1222789748732647</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1389858269549253</v>
+        <v>0.1395917003330076</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>199952</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>172679</v>
+        <v>173181</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>233744</v>
+        <v>228586</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05921606112484276</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0511393163534668</v>
+        <v>0.05128802182881231</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06922378027833755</v>
+        <v>0.0676962668587251</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>340</v>
@@ -6115,19 +6115,19 @@
         <v>385424</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>348771</v>
+        <v>350004</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>427563</v>
+        <v>422342</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1092761461488976</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09888418324302291</v>
+        <v>0.09923391355536966</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1212236675799221</v>
+        <v>0.1197431552091947</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>534</v>
@@ -6136,19 +6136,19 @@
         <v>585375</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>536585</v>
+        <v>539513</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>635347</v>
+        <v>632699</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08479145485257414</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07772417691221452</v>
+        <v>0.07814829901345234</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0920298224657389</v>
+        <v>0.09164629208853478</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>68370</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>52368</v>
+        <v>52531</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85136</v>
+        <v>85995</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02024795710403752</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01550891212958818</v>
+        <v>0.01555709706310337</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02521306660817586</v>
+        <v>0.02546758941579473</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>114</v>
@@ -6186,19 +6186,19 @@
         <v>129097</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>106479</v>
+        <v>107333</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>154600</v>
+        <v>153706</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03660191492686293</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03018923878830672</v>
+        <v>0.03043138205583031</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04383261261002021</v>
+        <v>0.04357907702934398</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>178</v>
@@ -6207,19 +6207,19 @@
         <v>197467</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>169129</v>
+        <v>170593</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>227532</v>
+        <v>229260</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02860309493739299</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02449821537225019</v>
+        <v>0.0247102757263775</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03295787729039169</v>
+        <v>0.03320819891467933</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>49211</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35044</v>
+        <v>34961</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63955</v>
+        <v>64675</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01457388312581965</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01037845568412629</v>
+        <v>0.01035388691463961</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01894037397617635</v>
+        <v>0.01915357192363315</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>57</v>
@@ -6257,19 +6257,19 @@
         <v>65553</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>49772</v>
+        <v>50839</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>84438</v>
+        <v>84536</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01858569907227552</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01411150010562018</v>
+        <v>0.01441399055062505</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02394000612270585</v>
+        <v>0.02396770377180774</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>105</v>
@@ -6278,19 +6278,19 @@
         <v>114764</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>93387</v>
+        <v>94183</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>137018</v>
+        <v>136377</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0166234955534553</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01352713391371426</v>
+        <v>0.01364240924232529</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01984698428803326</v>
+        <v>0.01975422152028683</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>371063</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>349531</v>
+        <v>350954</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>393652</v>
+        <v>393388</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6424895572348891</v>
+        <v>0.6424895572348892</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6052061100556747</v>
+        <v>0.6076701439719771</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.681600756839595</v>
+        <v>0.6811440678481886</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>673</v>
@@ -6642,19 +6642,19 @@
         <v>398697</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>377439</v>
+        <v>376801</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>421627</v>
+        <v>421892</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4869737751905972</v>
+        <v>0.4869737751905971</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4610092134874051</v>
+        <v>0.4602296135101353</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5149801461843966</v>
+        <v>0.5153041001451519</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1098</v>
@@ -6663,19 +6663,19 @@
         <v>769761</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>736622</v>
+        <v>736505</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>799854</v>
+        <v>801812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5513001420463605</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.527566099973851</v>
+        <v>0.5274827818551289</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5728526732099746</v>
+        <v>0.5742555901298655</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>65251</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52244</v>
+        <v>52463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80208</v>
+        <v>80240</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.112981123536558</v>
+        <v>0.1129811235365581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09045912914975356</v>
+        <v>0.09083955556646385</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.138878896358179</v>
+        <v>0.1389334478775596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -6713,19 +6713,19 @@
         <v>116835</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102461</v>
+        <v>101021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>133160</v>
+        <v>132956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1427042277234133</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1251471300520629</v>
+        <v>0.1233889553796304</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1626437780903647</v>
+        <v>0.1623936752113611</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>286</v>
@@ -6734,19 +6734,19 @@
         <v>182086</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>163005</v>
+        <v>163025</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>202768</v>
+        <v>203556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1304097886711043</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1167437529308084</v>
+        <v>0.1167576845724131</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1452219288269701</v>
+        <v>0.1457863376511813</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>75196</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61200</v>
+        <v>60832</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>90113</v>
+        <v>91073</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1302013163196502</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1059666787227339</v>
+        <v>0.1053287267203131</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1560286527114265</v>
+        <v>0.1576916600429587</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>277</v>
@@ -6784,19 +6784,19 @@
         <v>157132</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>142088</v>
+        <v>141780</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>174033</v>
+        <v>176968</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.1919225347683946</v>
+        <v>0.1919225347683945</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1735485891064925</v>
+        <v>0.173171585826946</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2125655718243077</v>
+        <v>0.2161513667188459</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>370</v>
@@ -6805,19 +6805,19 @@
         <v>232328</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>210533</v>
+        <v>209538</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>256704</v>
+        <v>257021</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1663926387763089</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1507830230022851</v>
+        <v>0.1500704274990108</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1838505679326264</v>
+        <v>0.1840774329302854</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>41377</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31832</v>
+        <v>31261</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55535</v>
+        <v>54997</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07164295179828546</v>
+        <v>0.07164295179828548</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05511687534829787</v>
+        <v>0.05412847564897197</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09615777522112733</v>
+        <v>0.09522616904819034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>143</v>
@@ -6855,19 +6855,19 @@
         <v>78722</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65487</v>
+        <v>65754</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92333</v>
+        <v>92121</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09615172119267804</v>
+        <v>0.09615172119267802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07998663909894352</v>
+        <v>0.08031287936715055</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1127761911641485</v>
+        <v>0.1125176037711334</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>197</v>
@@ -6876,19 +6876,19 @@
         <v>120098</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>104181</v>
+        <v>103975</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139647</v>
+        <v>138374</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.08601409997814441</v>
+        <v>0.0860140999781444</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07461389759146264</v>
+        <v>0.07446675103285874</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1000144772249513</v>
+        <v>0.09910282485670624</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>24652</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16880</v>
+        <v>16920</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34546</v>
+        <v>33912</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.04268505111061718</v>
+        <v>0.04268505111061719</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02922753563416467</v>
+        <v>0.02929592107604289</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05981563147824313</v>
+        <v>0.05871784739435187</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>123</v>
@@ -6926,19 +6926,19 @@
         <v>67338</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>56483</v>
+        <v>56067</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>79901</v>
+        <v>80061</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08224774112491695</v>
+        <v>0.08224774112491692</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06898903160344813</v>
+        <v>0.06848144787728135</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0975919935057704</v>
+        <v>0.09778721257459261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>159</v>
@@ -6947,19 +6947,19 @@
         <v>91991</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>78269</v>
+        <v>77539</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>107258</v>
+        <v>108345</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06588333052808197</v>
+        <v>0.06588333052808196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05605607166435646</v>
+        <v>0.0555334339278722</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07681766862487623</v>
+        <v>0.07759611512225391</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>1777273</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1733538</v>
+        <v>1726960</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1815070</v>
+        <v>1817204</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7975019441798736</v>
+        <v>0.7975019441798734</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7778770320402646</v>
+        <v>0.774925555149831</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8144622285520043</v>
+        <v>0.8154198023010117</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2077</v>
@@ -7072,19 +7072,19 @@
         <v>1603014</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1565454</v>
+        <v>1565497</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1638981</v>
+        <v>1639793</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7387830162950686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7214726924472891</v>
+        <v>0.7214926839313371</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7553594774079108</v>
+        <v>0.7557333737391837</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3615</v>
@@ -7093,19 +7093,19 @@
         <v>3380287</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3325776</v>
+        <v>3329130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3434484</v>
+        <v>3436536</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7685346249274804</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7561412519550581</v>
+        <v>0.7569036772867199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7808568301619752</v>
+        <v>0.7813232607617179</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>191724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164310</v>
+        <v>166557</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>223158</v>
+        <v>220924</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.08603078780288788</v>
+        <v>0.08603078780288786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07372964928593737</v>
+        <v>0.07473772064383886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1001358524216877</v>
+        <v>0.09913340363410912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>314</v>
@@ -7143,19 +7143,19 @@
         <v>210059</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>186099</v>
+        <v>187019</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>237856</v>
+        <v>234951</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.09681010889091593</v>
+        <v>0.09681010889091592</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08576753935686723</v>
+        <v>0.08619160708604233</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1096208211182823</v>
+        <v>0.108282191312015</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>505</v>
@@ -7164,19 +7164,19 @@
         <v>401783</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>366855</v>
+        <v>366523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>440378</v>
+        <v>440256</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09134846042616075</v>
+        <v>0.09134846042616077</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08340745251848419</v>
+        <v>0.08333182066609127</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1001234885184685</v>
+        <v>0.1000955911787292</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>168893</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>145008</v>
+        <v>146066</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>197768</v>
+        <v>198941</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07578606788854045</v>
+        <v>0.07578606788854043</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06506851705505903</v>
+        <v>0.0655429208209994</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08874285852435301</v>
+        <v>0.08926947522058748</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>368</v>
@@ -7214,19 +7214,19 @@
         <v>248733</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>223407</v>
+        <v>222600</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>278101</v>
+        <v>278666</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1146338080166841</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1029620579901827</v>
+        <v>0.1025901126477289</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1281689606579777</v>
+        <v>0.1284293254016676</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>540</v>
@@ -7235,19 +7235,19 @@
         <v>417626</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>384443</v>
+        <v>380388</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>460427</v>
+        <v>459021</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09495049971763625</v>
+        <v>0.09495049971763626</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08740621546272206</v>
+        <v>0.08648423520899128</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1046815922728389</v>
+        <v>0.1043620483458468</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>54725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41645</v>
+        <v>41379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71394</v>
+        <v>71664</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0245562937936359</v>
+        <v>0.02455629379363589</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01868703124464835</v>
+        <v>0.01856778405246898</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0320359209117279</v>
+        <v>0.0321570243256456</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -7285,19 +7285,19 @@
         <v>69915</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57342</v>
+        <v>56484</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84798</v>
+        <v>84761</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03222194797248189</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02642744180879368</v>
+        <v>0.02603165275884484</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03908082898681082</v>
+        <v>0.03906385362343995</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>160</v>
@@ -7306,19 +7306,19 @@
         <v>124640</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>104439</v>
+        <v>105471</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>145555</v>
+        <v>148431</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02833792707401013</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02374511372467681</v>
+        <v>0.02397966089882049</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0330931459720142</v>
+        <v>0.0337469010791492</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>35935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24578</v>
+        <v>24970</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50369</v>
+        <v>51729</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01612490633506229</v>
+        <v>0.01612490633506228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01102885770936184</v>
+        <v>0.01120454412119649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02260153626630285</v>
+        <v>0.02321197262203526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -7356,19 +7356,19 @@
         <v>38082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29275</v>
+        <v>28903</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50186</v>
+        <v>50881</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01755111882484959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0134920960944898</v>
+        <v>0.01332035450996523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02312923352009254</v>
+        <v>0.02344967839183517</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>89</v>
@@ -7377,19 +7377,19 @@
         <v>74018</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>58405</v>
+        <v>58981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>93213</v>
+        <v>93592</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01682848785471244</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01327880558006465</v>
+        <v>0.01340974733539955</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02119279861770733</v>
+        <v>0.02127888243947978</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>591347</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>567741</v>
+        <v>568226</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>611576</v>
+        <v>609914</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.831026231343798</v>
+        <v>0.8310262313437982</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7978513407435955</v>
+        <v>0.7985340946317406</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.859453374940766</v>
+        <v>0.8571178797001086</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>771</v>
@@ -7502,19 +7502,19 @@
         <v>572071</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>550329</v>
+        <v>551480</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>592612</v>
+        <v>590124</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7784579174599521</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7488717058149185</v>
+        <v>0.7504389160339259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8064099529676921</v>
+        <v>0.8030243308608309</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1332</v>
@@ -7523,19 +7523,19 @@
         <v>1163418</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1131471</v>
+        <v>1133438</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1190486</v>
+        <v>1191358</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8043188599637999</v>
+        <v>0.8043188599637998</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7822326150810095</v>
+        <v>0.7835923589293722</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8230320296914291</v>
+        <v>0.8236345033004547</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>46664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35107</v>
+        <v>34276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62103</v>
+        <v>62096</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06557796325880784</v>
+        <v>0.06557796325880783</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04933683694182756</v>
+        <v>0.04816887233011802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08727415636711494</v>
+        <v>0.08726378291098404</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -7573,19 +7573,19 @@
         <v>72620</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>59572</v>
+        <v>58694</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>89202</v>
+        <v>88342</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09881931459762162</v>
+        <v>0.09881931459762165</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08106369718682888</v>
+        <v>0.07986873014044962</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1213835300006961</v>
+        <v>0.1202136156244992</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>154</v>
@@ -7594,19 +7594,19 @@
         <v>119284</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100354</v>
+        <v>101201</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>141929</v>
+        <v>142103</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08246625679130257</v>
+        <v>0.08246625679130255</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0693786198401586</v>
+        <v>0.06996463552503411</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09812109762572019</v>
+        <v>0.09824133243510441</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>46680</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33943</v>
+        <v>34493</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>65795</v>
+        <v>66864</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06560051325386222</v>
+        <v>0.06560051325386221</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04769983725780538</v>
+        <v>0.04847315219265429</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09246248573389627</v>
+        <v>0.09396502068177021</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>94</v>
@@ -7644,19 +7644,19 @@
         <v>67430</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>55659</v>
+        <v>54590</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>85076</v>
+        <v>82173</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09175624374980926</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07573904940562018</v>
+        <v>0.07428474256384875</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1157685064637153</v>
+        <v>0.1118186350913466</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>136</v>
@@ -7665,19 +7665,19 @@
         <v>114110</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>95266</v>
+        <v>92663</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>138007</v>
+        <v>135546</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07888895179145569</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.06586123408352343</v>
+        <v>0.06406141388630879</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09540967355505175</v>
+        <v>0.09370883987291699</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>10843</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5917</v>
+        <v>5576</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18012</v>
+        <v>18654</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01523797909034614</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00831541547888643</v>
+        <v>0.007835980484981174</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02531176916461389</v>
+        <v>0.02621437738700233</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -7715,19 +7715,19 @@
         <v>12450</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7712</v>
+        <v>7445</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19204</v>
+        <v>19442</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01694151393873063</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01049434535507387</v>
+        <v>0.01013077491421321</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02613207685361356</v>
+        <v>0.02645647484793019</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -7736,19 +7736,19 @@
         <v>23293</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>16529</v>
+        <v>15890</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34004</v>
+        <v>32674</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01610346125047597</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01142751818883545</v>
+        <v>0.0109855524504967</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0235083375969152</v>
+        <v>0.02258854280480624</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>16051</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9135</v>
+        <v>9321</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27066</v>
+        <v>28023</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02255731305318565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01283735864830562</v>
+        <v>0.01309820884108301</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03803565439000735</v>
+        <v>0.03938096704426029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -7786,19 +7786,19 @@
         <v>10307</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5933</v>
+        <v>5769</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16026</v>
+        <v>16454</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01402501025388615</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.008072810986838869</v>
+        <v>0.007850150767433331</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02180789214828916</v>
+        <v>0.02239067113905891</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -7807,19 +7807,19 @@
         <v>26358</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17880</v>
+        <v>17524</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>38688</v>
+        <v>38258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01822247020296601</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01236086275983043</v>
+        <v>0.01211514704475996</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02674643173430374</v>
+        <v>0.02644953493013184</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>2739684</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2685904</v>
+        <v>2688694</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2793632</v>
+        <v>2794109</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7788332586855607</v>
+        <v>0.7788332586855609</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7635449034105471</v>
+        <v>0.764338004187326</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7941694935965961</v>
+        <v>0.7943050299608337</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3521</v>
@@ -7932,19 +7932,19 @@
         <v>2573782</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2521980</v>
+        <v>2521563</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2622958</v>
+        <v>2619653</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6912442400367056</v>
+        <v>0.6912442400367055</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6773319318239102</v>
+        <v>0.677219845491439</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7044516386069167</v>
+        <v>0.7035638671074382</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6045</v>
@@ -7953,19 +7953,19 @@
         <v>5313466</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5241707</v>
+        <v>5236297</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5383165</v>
+        <v>5383008</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7337945007894527</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7238845227459192</v>
+        <v>0.7231374355501528</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7434199825993008</v>
+        <v>0.7433983296754432</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>303639</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>270851</v>
+        <v>273636</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>338552</v>
+        <v>339636</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08631817439928209</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07699708593671663</v>
+        <v>0.07778896730178961</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09624318226943286</v>
+        <v>0.09655109174706966</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>623</v>
@@ -8003,19 +8003,19 @@
         <v>399514</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>366793</v>
+        <v>370603</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>428907</v>
+        <v>436475</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1072981281645041</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09851015585514963</v>
+        <v>0.09953346168380424</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1151920619657234</v>
+        <v>0.1172246567534699</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>945</v>
@@ -8024,19 +8024,19 @@
         <v>703154</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>661145</v>
+        <v>657371</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>752617</v>
+        <v>752853</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09710618267794</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0913046602000096</v>
+        <v>0.09078359599510293</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1039370381440944</v>
+        <v>0.1039697374680073</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>290770</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>258859</v>
+        <v>256156</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>326586</v>
+        <v>330967</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08265965910754319</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0735880114544462</v>
+        <v>0.07281955509270752</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09284135648120789</v>
+        <v>0.09408680937584769</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>739</v>
@@ -8074,19 +8074,19 @@
         <v>473294</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>438083</v>
+        <v>439220</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>512468</v>
+        <v>508284</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.127113229752764</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1176565689686811</v>
+        <v>0.1179618319942361</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1376341639237723</v>
+        <v>0.13651044328809</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1046</v>
@@ -8095,19 +8095,19 @@
         <v>764064</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>715808</v>
+        <v>713174</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>813213</v>
+        <v>815979</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.1055179310324084</v>
+        <v>0.1055179310324085</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09885377757497882</v>
+        <v>0.0984899839111574</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1123054493786643</v>
+        <v>0.1126873962797687</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>106945</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88357</v>
+        <v>87749</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>128871</v>
+        <v>129867</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03040209384400327</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02511790816549002</v>
+        <v>0.0249450900959559</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03663539726901645</v>
+        <v>0.03691848744596921</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>266</v>
@@ -8145,19 +8145,19 @@
         <v>161087</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>142675</v>
+        <v>141254</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>182735</v>
+        <v>181981</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04326334771974535</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03831836340096089</v>
+        <v>0.03793677504625095</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04907743172793637</v>
+        <v>0.04887490503974945</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>388</v>
@@ -8166,19 +8166,19 @@
         <v>268032</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>239208</v>
+        <v>241122</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>296112</v>
+        <v>300863</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03701542173014117</v>
+        <v>0.03701542173014118</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03303481521854572</v>
+        <v>0.03329916519435631</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04089339026802479</v>
+        <v>0.04154940922275143</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>76639</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>61786</v>
+        <v>60653</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>96729</v>
+        <v>97664</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02178681396361074</v>
+        <v>0.02178681396361073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01756441233036112</v>
+        <v>0.01724242947581829</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02749785910114899</v>
+        <v>0.02776365928544035</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>194</v>
@@ -8216,19 +8216,19 @@
         <v>115727</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>99126</v>
+        <v>98689</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>133266</v>
+        <v>133357</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03108105432628106</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02662246434640314</v>
+        <v>0.02650510443037481</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03579156005648967</v>
+        <v>0.03581595999094957</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>280</v>
@@ -8237,19 +8237,19 @@
         <v>192366</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>170672</v>
+        <v>170408</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>216917</v>
+        <v>220230</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02656596377005755</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02356995624590064</v>
+        <v>0.02353353726321951</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02995637145468235</v>
+        <v>0.03041390180989561</v>
       </c>
     </row>
     <row r="27">
